--- a/Assets/Excel/ConditionInfo.xlsx
+++ b/Assets/Excel/ConditionInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\MStudio3DRPG\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7414966F-0E54-4A75-B0F4-4D5DD8BA628A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC0A269-5123-4485-A2F9-1D6C96A250AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11916" yWindow="1932" windowWidth="11124" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="11124" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>conditionId</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,6 +40,18 @@
   </si>
   <si>
     <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密林探秘独白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家发现哥布林的密谋独白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏结束角色独白</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -365,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -400,6 +412,39 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Excel/ConditionInfo.xlsx
+++ b/Assets/Excel/ConditionInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\MStudio3DRPG\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC0A269-5123-4485-A2F9-1D6C96A250AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EC294A-D1BB-4935-917A-04D0E59C6D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="11124" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>conditionId</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,6 +52,10 @@
   </si>
   <si>
     <t>游戏结束角色独白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏角色完成所有任务内心独白</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -377,16 +381,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -439,9 +443,20 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="b">
+      <c r="C6" t="b">
         <v>0</v>
       </c>
     </row>
